--- a/assets/template/mpr/smp.xlsx
+++ b/assets/template/mpr/smp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webserv\xampp_74\htdocs\rpt.elearning\assets\template\mpr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23EB586-07FB-4753-85DD-03D85627D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AEAA99-EC2C-426F-965D-BF835DBCDD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5A273555-1B83-47FF-A957-7C81A34AE7D6}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,7 +131,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -326,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -353,215 +353,218 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -879,15 +882,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BB248A-C105-4ACB-AEF7-416E4D378DD5}">
-  <dimension ref="A1:AU39"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.33203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
@@ -925,273 +929,273 @@
     <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="75" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="72" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="69" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="66" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="63" t="s">
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="60" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="57" t="s">
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="54" t="s">
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="51" t="s">
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="48" t="s">
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="46"/>
-    </row>
-    <row r="2" spans="1:47">
-      <c r="A2" s="30"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="44" t="s">
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="65"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="22" t="s">
+      <c r="P2" s="68"/>
+      <c r="Q2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="20" t="s">
+      <c r="T2" s="69"/>
+      <c r="U2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="18" t="s">
+      <c r="X2" s="78"/>
+      <c r="Y2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="16" t="s">
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="37" t="s">
+      <c r="AE2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="14" t="s">
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="36" t="s">
+      <c r="AI2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="12" t="s">
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="35" t="s">
+      <c r="AM2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="10" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AP2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="34" t="s">
+      <c r="AQ2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="31"/>
-    </row>
-    <row r="3" spans="1:47" ht="28.8">
-      <c r="A3" s="30"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27" t="s">
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="19"/>
+    </row>
+    <row r="3" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="25" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="21" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="19" t="s">
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="17" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="15" t="s">
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AF3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="13" t="s">
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="11" t="s">
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AN3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
       <c r="AQ3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -1351,56 +1355,57 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="3"/>
+      <c r="O5" s="22"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="22"/>
       <c r="T5" s="3"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="3"/>
+      <c r="W5" s="22"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="3"/>
+      <c r="AA5" s="22"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="22"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="3"/>
+      <c r="AI5" s="22"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="3"/>
+      <c r="AM5" s="22"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
-      <c r="AQ5" s="3"/>
+      <c r="AQ5" s="22"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="4"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-    </row>
-    <row r="6" spans="1:47">
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="3"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -1449,7 +1454,7 @@
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
@@ -1498,7 +1503,7 @@
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
@@ -1547,7 +1552,7 @@
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
@@ -1596,7 +1601,7 @@
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
@@ -1645,7 +1650,7 @@
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
@@ -1694,7 +1699,7 @@
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
@@ -1743,7 +1748,7 @@
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
@@ -1792,7 +1797,7 @@
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
@@ -1841,7 +1846,7 @@
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
@@ -1890,7 +1895,7 @@
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -1939,7 +1944,7 @@
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1988,7 +1993,7 @@
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -2037,7 +2042,7 @@
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -2086,7 +2091,7 @@
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -2135,7 +2140,7 @@
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -2184,7 +2189,7 @@
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -2233,7 +2238,7 @@
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -2282,7 +2287,7 @@
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -2331,7 +2336,7 @@
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
@@ -2380,7 +2385,7 @@
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
@@ -2429,7 +2434,7 @@
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
@@ -2478,7 +2483,7 @@
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
@@ -2527,7 +2532,7 @@
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
@@ -2576,7 +2581,7 @@
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
@@ -2625,7 +2630,7 @@
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
@@ -2674,7 +2679,7 @@
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
@@ -2723,7 +2728,7 @@
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
@@ -2772,7 +2777,7 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
@@ -2821,44 +2826,23 @@
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
@@ -2875,14 +2859,35 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="D1:D3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
